--- a/tests/fixtures/orderforms/1508.33.fastq.xlsx
+++ b/tests/fixtures/orderforms/1508.33.fastq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAB2752E-F486-EF44-85B1-13EEB4B713EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8D247B-0BA7-CD40-9C95-C013F2942F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5922,8 +5922,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -14707,7 +14707,7 @@
         <v>725</v>
       </c>
       <c r="F16" s="67" t="s">
-        <v>78</v>
+        <v>606</v>
       </c>
       <c r="G16" s="68" t="s">
         <v>79</v>

--- a/tests/fixtures/orderforms/1508.33.fastq.xlsx
+++ b/tests/fixtures/orderforms/1508.33.fastq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8D247B-0BA7-CD40-9C95-C013F2942F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{080114E0-CE1A-B644-9A33-66AA7023EC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -5585,7 +5585,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5595,57 +5595,57 @@
     <col min="3" max="16384" width="10.83203125" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="91" t="s">
+    <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="91" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5"/>
     </row>
-    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="164" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="93" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="92" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="92" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="147" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="148" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="95" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="96" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="168" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A16" s="96" t="s">
         <v>602</v>
       </c>
@@ -5903,7 +5903,7 @@
       <c r="A74" s="94"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Y2W5z/o3EQJwGgHsnPBOnoM1WkfUBSxzCRSc9r9DtU7jN3FYLdHWg/VpFRvIo4sPJhcLVYBfpRtY3GbdJ0Ln1Q==" saltValue="L+RSgvBGi3JvnrVNU3PelQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HH1PugX67brJCDBMpaRlUTYJUaPjbJ67Fetkvc30gZYlKuQzhzkw9xdkJp6cD0fjBKalnUVSOkZNT625CffBPw==" saltValue="6v/sV1QMsi1vJgblMj4cAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -5922,8 +5922,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>

--- a/tests/fixtures/orderforms/1508.33.fastq.xlsx
+++ b/tests/fixtures/orderforms/1508.33.fastq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{080114E0-CE1A-B644-9A33-66AA7023EC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD77DCD-C5F6-524B-BEFE-6E8B972832FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="851">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3685,6 +3685,9 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>UDF/Sample Buffer</t>
   </si>
 </sst>
 </file>
@@ -4457,7 +4460,7 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="16" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4926,6 +4929,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -5922,8 +5928,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -12309,9 +12315,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="100"/>
       <c r="R10" s="34"/>
-      <c r="S10" s="108" t="s">
-        <v>713</v>
-      </c>
+      <c r="S10"/>
       <c r="U10" s="102"/>
       <c r="V10" s="32"/>
       <c r="W10" s="37"/>
@@ -13372,8 +13376,8 @@
         <v>28</v>
       </c>
       <c r="R11" s="46"/>
-      <c r="S11" s="108" t="s">
-        <v>713</v>
+      <c r="S11" s="176" t="s">
+        <v>850</v>
       </c>
       <c r="T11"/>
       <c r="U11" s="38" t="s">
@@ -13444,9 +13448,7 @@
       <c r="P12" s="47"/>
       <c r="Q12" s="101"/>
       <c r="R12" s="74"/>
-      <c r="S12" s="108" t="s">
-        <v>713</v>
-      </c>
+      <c r="S12"/>
       <c r="T12"/>
       <c r="U12" s="103"/>
       <c r="V12" s="47"/>
@@ -72313,7 +72315,7 @@
       <c r="AL395" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jwGORLOaFqDkhRWjhEEWIRxpYDG5S952p8rqPPqkNWXUwBwa3tMhgfIJDj8Lu1bgIlIbfZaTf6cX/btXLsOVUQ==" saltValue="1qoAJ52cH2SXgchVkgIfYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EqPbYDMfqqjFqsxbPiniE/4lTEtH21HBu6Q3LIy36TZcEw8iZXCneUghXbvDoI0yKuWdw7ppTWinOKGOGDgc/g==" saltValue="VzogZJ/gaUrub0ytlzMPOw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="AB9:AD9"/>

--- a/tests/fixtures/orderforms/1508.33.fastq.xlsx
+++ b/tests/fixtures/orderforms/1508.33.fastq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdiazboada/Documents/Clinical_Genomics/repos/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9518427-93FA-274E-91B3-DBB00E1F9F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23822FD-C16E-2D48-96B5-81FB1BE6D9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-13500" windowWidth="51200" windowHeight="28320" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -5926,8 +5926,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -13628,7 +13628,7 @@
         <v>724</v>
       </c>
       <c r="F15" s="67" t="s">
-        <v>78</v>
+        <v>606</v>
       </c>
       <c r="G15" s="68" t="s">
         <v>68</v>
@@ -13663,7 +13663,7 @@
       </c>
       <c r="R15" s="74"/>
       <c r="S15" s="73" t="s">
-        <v>719</v>
+        <v>74</v>
       </c>
       <c r="U15" s="88"/>
       <c r="V15" s="102"/>
@@ -15770,7 +15770,7 @@
         <v>730</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>89</v>
+        <v>606</v>
       </c>
       <c r="G17" s="68" t="s">
         <v>90</v>
@@ -16829,7 +16829,7 @@
         <v>733</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>89</v>
+        <v>606</v>
       </c>
       <c r="G18" s="68" t="s">
         <v>90</v>
@@ -17888,7 +17888,7 @@
         <v>736</v>
       </c>
       <c r="F19" s="67" t="s">
-        <v>453</v>
+        <v>607</v>
       </c>
       <c r="G19" s="68" t="s">
         <v>90</v>
@@ -18947,7 +18947,7 @@
         <v>739</v>
       </c>
       <c r="F20" s="67" t="s">
-        <v>470</v>
+        <v>607</v>
       </c>
       <c r="G20" s="68" t="s">
         <v>90</v>
@@ -20006,7 +20006,7 @@
         <v>742</v>
       </c>
       <c r="F21" s="67" t="s">
-        <v>470</v>
+        <v>607</v>
       </c>
       <c r="G21" s="68" t="s">
         <v>90</v>
@@ -21065,7 +21065,7 @@
         <v>745</v>
       </c>
       <c r="F22" s="67" t="s">
-        <v>454</v>
+        <v>608</v>
       </c>
       <c r="G22" s="68" t="s">
         <v>90</v>
@@ -22124,7 +22124,7 @@
         <v>748</v>
       </c>
       <c r="F23" s="67" t="s">
-        <v>455</v>
+        <v>607</v>
       </c>
       <c r="G23" s="68" t="s">
         <v>90</v>
@@ -23183,7 +23183,7 @@
         <v>751</v>
       </c>
       <c r="F24" s="67" t="s">
-        <v>471</v>
+        <v>607</v>
       </c>
       <c r="G24" s="68" t="s">
         <v>90</v>
@@ -24242,7 +24242,7 @@
         <v>754</v>
       </c>
       <c r="F25" s="67" t="s">
-        <v>471</v>
+        <v>607</v>
       </c>
       <c r="G25" s="68" t="s">
         <v>90</v>
@@ -25301,7 +25301,7 @@
         <v>757</v>
       </c>
       <c r="F26" s="67" t="s">
-        <v>456</v>
+        <v>608</v>
       </c>
       <c r="G26" s="68" t="s">
         <v>90</v>
